--- a/biology/Zoologie/Gekkonidae/Gekkonidae.xlsx
+++ b/biology/Zoologie/Gekkonidae/Gekkonidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gekkonidae sont une famille de geckos. Elle a été étudiée pour la première fois par Nicolaus Michael Oppel en 1811. Cette famille est constituée de 58 genres et plus de 1300 espèces présentes dans le monde entier (mais peu d'espèces en Amérique et en Australie)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gekkonidae sont une famille de geckos. Elle a été étudiée pour la première fois par Nicolaus Michael Oppel en 1811. Cette famille est constituée de 58 genres et plus de 1300 espèces présentes dans le monde entier (mais peu d'espèces en Amérique et en Australie).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces geckos partagent en général les caractéristiques suivantes (mais il y a des exceptions) :
 possibilité de grimper sur toutes les surfaces grâce à leurs coussinets adhérents, les setæ pour les espèces arboricoles principalement ;
@@ -550,9 +564,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (12 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (12 juin 2017) :
 Afroedura Loveridge, 1944
 Afrogecko Bauer, Good &amp; Branch, 1997
 Agamura Blanford, 1874
@@ -638,9 +654,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pyron, et al. (2013)[3] présente la classification suivante des genres de Gekkonidae, basée sur la phylogénétique moléculaire.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pyron, et al. (2013) présente la classification suivante des genres de Gekkonidae, basée sur la phylogénétique moléculaire.
 </t>
         </is>
       </c>
@@ -669,7 +687,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Oppel, 1811 : Die Ordnungen, Familien und Gattungen der Reptilien, als Prodrom einer Naturgeschichte derselben. J. Lindauer, München (texte intégral).</t>
         </is>
